--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H2">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I2">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J2">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>68.0004526828012</v>
+        <v>691.429830677631</v>
       </c>
       <c r="R2">
-        <v>68.0004526828012</v>
+        <v>6222.868476098679</v>
       </c>
       <c r="S2">
-        <v>0.01436811753201629</v>
+        <v>0.05377839357653909</v>
       </c>
       <c r="T2">
-        <v>0.01436811753201629</v>
+        <v>0.05377839357653909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H3">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I3">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J3">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>1737.833569734987</v>
+        <v>5303.320137158058</v>
       </c>
       <c r="R3">
-        <v>1737.833569734987</v>
+        <v>47729.88123442252</v>
       </c>
       <c r="S3">
-        <v>0.3671945699760177</v>
+        <v>0.4124844271167171</v>
       </c>
       <c r="T3">
-        <v>0.3671945699760177</v>
+        <v>0.4124844271167171</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H4">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I4">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J4">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>971.7489136843247</v>
+        <v>3250.079943262713</v>
       </c>
       <c r="R4">
-        <v>971.7489136843247</v>
+        <v>29250.71948936442</v>
       </c>
       <c r="S4">
-        <v>0.2053251420038985</v>
+        <v>0.2527864297852207</v>
       </c>
       <c r="T4">
-        <v>0.2053251420038985</v>
+        <v>0.2527864297852207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H5">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I5">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J5">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>288.6078113529267</v>
+        <v>881.7894312807059</v>
       </c>
       <c r="R5">
-        <v>288.6078113529267</v>
+        <v>7936.104881526353</v>
       </c>
       <c r="S5">
-        <v>0.0609812257209523</v>
+        <v>0.06858428286290676</v>
       </c>
       <c r="T5">
-        <v>0.0609812257209523</v>
+        <v>0.06858428286290677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.2678596072411</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H6">
-        <v>2.2678596072411</v>
+        <v>14.247413</v>
       </c>
       <c r="I6">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J6">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>16.05432481418072</v>
+        <v>112.2496569804788</v>
       </c>
       <c r="R6">
-        <v>16.05432481418072</v>
+        <v>1010.246912824309</v>
       </c>
       <c r="S6">
-        <v>0.003392189562374132</v>
+        <v>0.008730612947392741</v>
       </c>
       <c r="T6">
-        <v>0.003392189562374132</v>
+        <v>0.008730612947392743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2678596072411</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H7">
-        <v>2.2678596072411</v>
+        <v>14.247413</v>
       </c>
       <c r="I7">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J7">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>410.287630461159</v>
+        <v>860.9635278105403</v>
       </c>
       <c r="R7">
-        <v>410.287630461159</v>
+        <v>7748.671750294863</v>
       </c>
       <c r="S7">
-        <v>0.08669149489190668</v>
+        <v>0.06696447477289719</v>
       </c>
       <c r="T7">
-        <v>0.08669149489190668</v>
+        <v>0.06696447477289719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.2678596072411</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H8">
-        <v>2.2678596072411</v>
+        <v>14.247413</v>
       </c>
       <c r="I8">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J8">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>229.4216006309204</v>
+        <v>527.6317893788786</v>
       </c>
       <c r="R8">
-        <v>229.4216006309204</v>
+        <v>4748.686104409907</v>
       </c>
       <c r="S8">
-        <v>0.04847550850322632</v>
+        <v>0.04103842324086885</v>
       </c>
       <c r="T8">
-        <v>0.04847550850322632</v>
+        <v>0.04103842324086886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.2678596072411</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H9">
-        <v>2.2678596072411</v>
+        <v>14.247413</v>
       </c>
       <c r="I9">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J9">
-        <v>0.1529563383685501</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>68.13783386094383</v>
+        <v>143.1534434857482</v>
       </c>
       <c r="R9">
-        <v>68.13783386094383</v>
+        <v>1288.380991371734</v>
       </c>
       <c r="S9">
-        <v>0.01439714541104304</v>
+        <v>0.01113426393256491</v>
       </c>
       <c r="T9">
-        <v>0.01439714541104304</v>
+        <v>0.01113426393256492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.9531306087563</v>
+        <v>3.138366333333334</v>
       </c>
       <c r="H10">
-        <v>2.9531306087563</v>
+        <v>9.415099000000001</v>
       </c>
       <c r="I10">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489255</v>
       </c>
       <c r="J10">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489258</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>20.9054025479773</v>
+        <v>74.17779165854523</v>
       </c>
       <c r="R10">
-        <v>20.9054025479773</v>
+        <v>667.6001249269071</v>
       </c>
       <c r="S10">
-        <v>0.004417195312869162</v>
+        <v>0.005769439352279916</v>
       </c>
       <c r="T10">
-        <v>0.004417195312869162</v>
+        <v>0.005769439352279917</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.9531306087563</v>
+        <v>3.138366333333334</v>
       </c>
       <c r="H11">
-        <v>2.9531306087563</v>
+        <v>9.415099000000001</v>
       </c>
       <c r="I11">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489255</v>
       </c>
       <c r="J11">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489258</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>534.2627718401492</v>
+        <v>568.949383984692</v>
       </c>
       <c r="R11">
-        <v>534.2627718401492</v>
+        <v>5120.544455862227</v>
       </c>
       <c r="S11">
-        <v>0.1128867528954199</v>
+        <v>0.04425204487788973</v>
       </c>
       <c r="T11">
-        <v>0.1128867528954199</v>
+        <v>0.04425204487788974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.9531306087563</v>
+        <v>3.138366333333334</v>
       </c>
       <c r="H12">
-        <v>2.9531306087563</v>
+        <v>9.415099000000001</v>
       </c>
       <c r="I12">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489255</v>
       </c>
       <c r="J12">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489258</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>298.7451026376551</v>
+        <v>348.6742142274735</v>
       </c>
       <c r="R12">
-        <v>298.7451026376551</v>
+        <v>3138.067928047261</v>
       </c>
       <c r="S12">
-        <v>0.06312317900050897</v>
+        <v>0.02711936669602271</v>
       </c>
       <c r="T12">
-        <v>0.06312317900050897</v>
+        <v>0.02711936669602272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.9531306087563</v>
+        <v>3.138366333333334</v>
       </c>
       <c r="H13">
-        <v>2.9531306087563</v>
+        <v>9.415099000000001</v>
       </c>
       <c r="I13">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489255</v>
       </c>
       <c r="J13">
-        <v>0.1991746063985653</v>
+        <v>0.08449869176489258</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>88.72679867246855</v>
+        <v>94.59989982807578</v>
       </c>
       <c r="R13">
-        <v>88.72679867246855</v>
+        <v>851.399098452682</v>
       </c>
       <c r="S13">
-        <v>0.01874747918976736</v>
+        <v>0.007357840838700191</v>
       </c>
       <c r="T13">
-        <v>0.01874747918976736</v>
+        <v>0.007357840838700193</v>
       </c>
     </row>
   </sheetData>
